--- a/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
+++ b/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="202">
   <si>
     <t>Batter</t>
   </si>
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,10 +1003,10 @@
         <v>2100</v>
       </c>
       <c r="F2" s="1">
-        <v>7.95</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>3.7857</v>
+        <v>4.2857</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1026,10 +1026,10 @@
         <v>3900</v>
       </c>
       <c r="F3" s="1">
-        <v>8.98</v>
+        <v>9.17</v>
       </c>
       <c r="G3" s="2">
-        <v>2.3026</v>
+        <v>2.3513</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1049,10 +1049,10 @@
         <v>3500</v>
       </c>
       <c r="F4" s="1">
-        <v>8.57</v>
+        <v>8.56</v>
       </c>
       <c r="G4" s="2">
-        <v>2.4486</v>
+        <v>2.4457</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1072,10 +1072,10 @@
         <v>3900</v>
       </c>
       <c r="F5" s="1">
-        <v>8.42</v>
+        <v>7.9</v>
       </c>
       <c r="G5" s="2">
-        <v>2.159</v>
+        <v>2.0256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1095,10 +1095,10 @@
         <v>3100</v>
       </c>
       <c r="F6" s="1">
-        <v>9.19</v>
+        <v>7.54</v>
       </c>
       <c r="G6" s="2">
-        <v>2.9645</v>
+        <v>2.4323</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1118,10 +1118,10 @@
         <v>2100</v>
       </c>
       <c r="F7" s="1">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="G7" s="2">
-        <v>3.7619</v>
+        <v>3.2381</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1141,10 +1141,10 @@
         <v>4100</v>
       </c>
       <c r="F8" s="1">
-        <v>6.78</v>
+        <v>6.16</v>
       </c>
       <c r="G8" s="2">
-        <v>1.6537</v>
+        <v>1.5024</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1164,10 +1164,10 @@
         <v>2800</v>
       </c>
       <c r="F9" s="1">
-        <v>7.91</v>
+        <v>6.95</v>
       </c>
       <c r="G9" s="2">
-        <v>2.825</v>
+        <v>2.4821</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1187,10 +1187,10 @@
         <v>3500</v>
       </c>
       <c r="F10" s="1">
-        <v>6.34</v>
+        <v>6.03</v>
       </c>
       <c r="G10" s="2">
-        <v>1.8114</v>
+        <v>1.7229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1210,10 +1210,10 @@
         <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>7.89</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1233,10 +1233,10 @@
         <v>3900</v>
       </c>
       <c r="F12" s="1">
-        <v>7.92</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>2.0308</v>
+        <v>2.1282</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1256,10 +1256,10 @@
         <v>4300</v>
       </c>
       <c r="F13" s="1">
-        <v>8.539999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>1.986</v>
+        <v>2.0233</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1279,10 +1279,10 @@
         <v>5400</v>
       </c>
       <c r="F14" s="1">
-        <v>8.359999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="G14" s="2">
-        <v>1.5481</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1302,10 +1302,10 @@
         <v>5400</v>
       </c>
       <c r="F15" s="1">
-        <v>8.609999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="G15" s="2">
-        <v>1.5944</v>
+        <v>1.4296</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1325,10 +1325,10 @@
         <v>3200</v>
       </c>
       <c r="F16" s="1">
-        <v>7.08</v>
+        <v>6.87</v>
       </c>
       <c r="G16" s="2">
-        <v>2.2125</v>
+        <v>2.1469</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1348,10 +1348,10 @@
         <v>3300</v>
       </c>
       <c r="F17" s="1">
-        <v>6.16</v>
+        <v>6.41</v>
       </c>
       <c r="G17" s="2">
-        <v>1.8667</v>
+        <v>1.9424</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1371,10 +1371,10 @@
         <v>4700</v>
       </c>
       <c r="F18" s="1">
-        <v>5.89</v>
+        <v>6.41</v>
       </c>
       <c r="G18" s="2">
-        <v>1.2532</v>
+        <v>1.3638</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1394,10 +1394,10 @@
         <v>4000</v>
       </c>
       <c r="F19" s="1">
-        <v>7.05</v>
+        <v>6.04</v>
       </c>
       <c r="G19" s="2">
-        <v>1.7625</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1417,10 +1417,10 @@
         <v>3800</v>
       </c>
       <c r="F20" s="1">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="G20" s="2">
-        <v>1.7105</v>
+        <v>1.7763</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1440,10 +1440,10 @@
         <v>4500</v>
       </c>
       <c r="F21" s="1">
-        <v>6.78</v>
+        <v>6.8</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5067</v>
+        <v>1.5111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1463,10 +1463,10 @@
         <v>3300</v>
       </c>
       <c r="F22" s="1">
-        <v>7.24</v>
+        <v>6.71</v>
       </c>
       <c r="G22" s="2">
-        <v>2.1939</v>
+        <v>2.0333</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1486,10 +1486,10 @@
         <v>3700</v>
       </c>
       <c r="F23" s="1">
-        <v>8.68</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>2.3459</v>
+        <v>2.1757</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1509,10 +1509,10 @@
         <v>3700</v>
       </c>
       <c r="F24" s="1">
-        <v>7.11</v>
+        <v>6.5</v>
       </c>
       <c r="G24" s="2">
-        <v>1.9216</v>
+        <v>1.7568</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1532,10 +1532,10 @@
         <v>4200</v>
       </c>
       <c r="F25" s="1">
-        <v>6.12</v>
+        <v>6.08</v>
       </c>
       <c r="G25" s="2">
-        <v>1.4571</v>
+        <v>1.4476</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1555,10 +1555,10 @@
         <v>2400</v>
       </c>
       <c r="F26" s="1">
-        <v>7.71</v>
+        <v>6.49</v>
       </c>
       <c r="G26" s="2">
-        <v>3.2125</v>
+        <v>2.7042</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1578,10 +1578,10 @@
         <v>2400</v>
       </c>
       <c r="F27" s="1">
-        <v>5.05</v>
+        <v>5.54</v>
       </c>
       <c r="G27" s="2">
-        <v>2.1042</v>
+        <v>2.3083</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1617,10 +1617,10 @@
         <v>4100</v>
       </c>
       <c r="F29" s="1">
-        <v>7.5</v>
+        <v>7.17</v>
       </c>
       <c r="G29" s="2">
-        <v>1.8293</v>
+        <v>1.7488</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1640,10 +1640,10 @@
         <v>3200</v>
       </c>
       <c r="F30" s="1">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="G30" s="2">
-        <v>2.275</v>
+        <v>2.3281</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1663,10 +1663,10 @@
         <v>5600</v>
       </c>
       <c r="F31" s="1">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="G31" s="2">
-        <v>1.4089</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1686,10 +1686,10 @@
         <v>4700</v>
       </c>
       <c r="F32" s="1">
-        <v>7.59</v>
+        <v>7.53</v>
       </c>
       <c r="G32" s="2">
-        <v>1.6149</v>
+        <v>1.6021</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1709,10 +1709,10 @@
         <v>4600</v>
       </c>
       <c r="F33" s="1">
-        <v>6.76</v>
+        <v>6.57</v>
       </c>
       <c r="G33" s="2">
-        <v>1.4696</v>
+        <v>1.4283</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1732,10 +1732,10 @@
         <v>4100</v>
       </c>
       <c r="F34" s="1">
-        <v>6.26</v>
+        <v>6.18</v>
       </c>
       <c r="G34" s="2">
-        <v>1.5268</v>
+        <v>1.5073</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1755,10 +1755,10 @@
         <v>3000</v>
       </c>
       <c r="F35" s="1">
-        <v>5.85</v>
+        <v>5.51</v>
       </c>
       <c r="G35" s="2">
-        <v>1.95</v>
+        <v>1.8367</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1778,10 +1778,10 @@
         <v>3000</v>
       </c>
       <c r="F36" s="1">
-        <v>5.06</v>
+        <v>5.17</v>
       </c>
       <c r="G36" s="2">
-        <v>1.6867</v>
+        <v>1.7233</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1817,10 +1817,10 @@
         <v>3400</v>
       </c>
       <c r="F38" s="1">
-        <v>6.28</v>
+        <v>6.69</v>
       </c>
       <c r="G38" s="2">
-        <v>1.8471</v>
+        <v>1.9676</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1863,10 +1863,10 @@
         <v>3200</v>
       </c>
       <c r="F40" s="1">
-        <v>7.41</v>
+        <v>6.96</v>
       </c>
       <c r="G40" s="2">
-        <v>2.3156</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1886,10 +1886,10 @@
         <v>3400</v>
       </c>
       <c r="F41" s="1">
-        <v>7.36</v>
+        <v>6.92</v>
       </c>
       <c r="G41" s="2">
-        <v>2.1647</v>
+        <v>2.0353</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1909,10 +1909,10 @@
         <v>2900</v>
       </c>
       <c r="F42" s="1">
-        <v>6.64</v>
+        <v>6.46</v>
       </c>
       <c r="G42" s="2">
-        <v>2.2897</v>
+        <v>2.2276</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1932,10 +1932,10 @@
         <v>3200</v>
       </c>
       <c r="F43" s="1">
-        <v>5.83</v>
+        <v>6.49</v>
       </c>
       <c r="G43" s="2">
-        <v>1.8219</v>
+        <v>2.0281</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1955,10 +1955,10 @@
         <v>3000</v>
       </c>
       <c r="F44" s="1">
-        <v>5.47</v>
+        <v>6.26</v>
       </c>
       <c r="G44" s="2">
-        <v>1.8233</v>
+        <v>2.0867</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1978,10 +1978,10 @@
         <v>2800</v>
       </c>
       <c r="F45" s="1">
-        <v>5.72</v>
+        <v>5.06</v>
       </c>
       <c r="G45" s="2">
-        <v>2.0429</v>
+        <v>1.8071</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2017,10 +2017,10 @@
         <v>4400</v>
       </c>
       <c r="F47" s="1">
-        <v>8.539999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="G47" s="2">
-        <v>1.9409</v>
+        <v>1.8773</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2040,10 +2040,10 @@
         <v>5000</v>
       </c>
       <c r="F48" s="1">
-        <v>8.08</v>
+        <v>7.48</v>
       </c>
       <c r="G48" s="2">
-        <v>1.616</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2063,10 +2063,10 @@
         <v>4800</v>
       </c>
       <c r="F49" s="1">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="G49" s="2">
-        <v>1.5</v>
+        <v>1.5146</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2086,10 +2086,10 @@
         <v>5000</v>
       </c>
       <c r="F50" s="1">
-        <v>7.26</v>
+        <v>7.14</v>
       </c>
       <c r="G50" s="2">
-        <v>1.452</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2109,10 +2109,10 @@
         <v>3400</v>
       </c>
       <c r="F51" s="1">
-        <v>7.04</v>
+        <v>6.96</v>
       </c>
       <c r="G51" s="2">
-        <v>2.0706</v>
+        <v>2.0471</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2132,10 +2132,10 @@
         <v>5100</v>
       </c>
       <c r="F52" s="1">
-        <v>7.25</v>
+        <v>6.63</v>
       </c>
       <c r="G52" s="2">
-        <v>1.4216</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2155,10 +2155,10 @@
         <v>3800</v>
       </c>
       <c r="F53" s="1">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="G53" s="2">
-        <v>1.5079</v>
+        <v>1.5132</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2178,10 +2178,10 @@
         <v>3200</v>
       </c>
       <c r="F54" s="1">
-        <v>4.88</v>
+        <v>5.34</v>
       </c>
       <c r="G54" s="2">
-        <v>1.525</v>
+        <v>1.6687</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2217,10 +2217,10 @@
         <v>6000</v>
       </c>
       <c r="F56" s="1">
-        <v>8.18</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G56" s="2">
-        <v>1.3633</v>
+        <v>1.3817</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2240,10 +2240,10 @@
         <v>5000</v>
       </c>
       <c r="F57" s="1">
-        <v>8.23</v>
+        <v>7.76</v>
       </c>
       <c r="G57" s="2">
-        <v>1.646</v>
+        <v>1.552</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2263,10 +2263,10 @@
         <v>5400</v>
       </c>
       <c r="F58" s="1">
-        <v>8.01</v>
+        <v>8.19</v>
       </c>
       <c r="G58" s="2">
-        <v>1.4833</v>
+        <v>1.5167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2286,10 +2286,10 @@
         <v>5400</v>
       </c>
       <c r="F59" s="1">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="G59" s="2">
-        <v>1.4519</v>
+        <v>1.4481</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2309,10 +2309,10 @@
         <v>4800</v>
       </c>
       <c r="F60" s="1">
-        <v>7.55</v>
+        <v>6.58</v>
       </c>
       <c r="G60" s="2">
-        <v>1.5729</v>
+        <v>1.3708</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2332,10 +2332,10 @@
         <v>5000</v>
       </c>
       <c r="F61" s="1">
-        <v>6.98</v>
+        <v>5.98</v>
       </c>
       <c r="G61" s="2">
-        <v>1.396</v>
+        <v>1.196</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2355,10 +2355,10 @@
         <v>4300</v>
       </c>
       <c r="F62" s="1">
-        <v>6.62</v>
+        <v>6.78</v>
       </c>
       <c r="G62" s="2">
-        <v>1.5395</v>
+        <v>1.5767</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2378,10 +2378,10 @@
         <v>3500</v>
       </c>
       <c r="F63" s="1">
-        <v>7.26</v>
+        <v>6.09</v>
       </c>
       <c r="G63" s="2">
-        <v>2.0743</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2417,10 +2417,10 @@
         <v>3900</v>
       </c>
       <c r="F65" s="1">
-        <v>6.68</v>
+        <v>7.29</v>
       </c>
       <c r="G65" s="2">
-        <v>1.7128</v>
+        <v>1.8692</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2440,10 +2440,10 @@
         <v>5000</v>
       </c>
       <c r="F66" s="1">
-        <v>6.88</v>
+        <v>7.39</v>
       </c>
       <c r="G66" s="2">
-        <v>1.376</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2463,10 +2463,10 @@
         <v>5500</v>
       </c>
       <c r="F67" s="1">
-        <v>7.69</v>
+        <v>6.92</v>
       </c>
       <c r="G67" s="2">
-        <v>1.3982</v>
+        <v>1.2582</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2486,10 +2486,10 @@
         <v>5500</v>
       </c>
       <c r="F68" s="1">
-        <v>7.76</v>
+        <v>6.96</v>
       </c>
       <c r="G68" s="2">
-        <v>1.4109</v>
+        <v>1.2655</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2509,10 +2509,10 @@
         <v>3100</v>
       </c>
       <c r="F69" s="1">
-        <v>7.48</v>
+        <v>6.74</v>
       </c>
       <c r="G69" s="2">
-        <v>2.4129</v>
+        <v>2.1742</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2532,10 +2532,10 @@
         <v>4800</v>
       </c>
       <c r="F70" s="1">
-        <v>6.99</v>
+        <v>6.45</v>
       </c>
       <c r="G70" s="2">
-        <v>1.4563</v>
+        <v>1.3438</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2555,10 +2555,10 @@
         <v>4500</v>
       </c>
       <c r="F71" s="1">
-        <v>5.88</v>
+        <v>5.59</v>
       </c>
       <c r="G71" s="2">
-        <v>1.3067</v>
+        <v>1.2422</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2578,10 +2578,10 @@
         <v>2900</v>
       </c>
       <c r="F72" s="1">
-        <v>4.58</v>
+        <v>5.23</v>
       </c>
       <c r="G72" s="2">
-        <v>1.5793</v>
+        <v>1.8034</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2617,10 +2617,10 @@
         <v>3300</v>
       </c>
       <c r="F74" s="1">
-        <v>8.74</v>
+        <v>7.63</v>
       </c>
       <c r="G74" s="2">
-        <v>2.6485</v>
+        <v>2.3121</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2640,10 +2640,10 @@
         <v>5300</v>
       </c>
       <c r="F75" s="1">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="G75" s="2">
-        <v>1.7321</v>
+        <v>1.5019</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2663,10 +2663,10 @@
         <v>3600</v>
       </c>
       <c r="F76" s="1">
-        <v>7.72</v>
+        <v>7.37</v>
       </c>
       <c r="G76" s="2">
-        <v>2.1444</v>
+        <v>2.0472</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2686,10 +2686,10 @@
         <v>4600</v>
       </c>
       <c r="F77" s="1">
-        <v>7.99</v>
+        <v>7.32</v>
       </c>
       <c r="G77" s="2">
-        <v>1.737</v>
+        <v>1.5913</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2709,10 +2709,10 @@
         <v>4900</v>
       </c>
       <c r="F78" s="1">
-        <v>7.07</v>
+        <v>6.79</v>
       </c>
       <c r="G78" s="2">
-        <v>1.4429</v>
+        <v>1.3857</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2732,10 +2732,10 @@
         <v>4100</v>
       </c>
       <c r="F79" s="1">
-        <v>6.69</v>
+        <v>6.06</v>
       </c>
       <c r="G79" s="2">
-        <v>1.6317</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2755,10 +2755,10 @@
         <v>2900</v>
       </c>
       <c r="F80" s="1">
-        <v>6.7</v>
+        <v>6.13</v>
       </c>
       <c r="G80" s="2">
-        <v>2.3103</v>
+        <v>2.1138</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2778,10 +2778,10 @@
         <v>4100</v>
       </c>
       <c r="F81" s="1">
-        <v>4.87</v>
+        <v>5.5</v>
       </c>
       <c r="G81" s="2">
-        <v>1.1878</v>
+        <v>1.3415</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2817,10 +2817,10 @@
         <v>2700</v>
       </c>
       <c r="F83" s="1">
-        <v>7.3</v>
+        <v>6.76</v>
       </c>
       <c r="G83" s="2">
-        <v>2.7037</v>
+        <v>2.5037</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2840,10 +2840,10 @@
         <v>4900</v>
       </c>
       <c r="F84" s="1">
-        <v>6.92</v>
+        <v>7.21</v>
       </c>
       <c r="G84" s="2">
-        <v>1.4122</v>
+        <v>1.4714</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2863,10 +2863,10 @@
         <v>3500</v>
       </c>
       <c r="F85" s="1">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="G85" s="2">
-        <v>2</v>
+        <v>2.0257</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>3400</v>
       </c>
       <c r="F86" s="1">
-        <v>8.109999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G86" s="2">
-        <v>2.3853</v>
+        <v>2.1176</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2909,10 +2909,10 @@
         <v>3400</v>
       </c>
       <c r="F87" s="1">
-        <v>6.89</v>
+        <v>6.96</v>
       </c>
       <c r="G87" s="2">
-        <v>2.0265</v>
+        <v>2.0471</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2932,10 +2932,10 @@
         <v>2500</v>
       </c>
       <c r="F88" s="1">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="G88" s="2">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2955,10 +2955,10 @@
         <v>2400</v>
       </c>
       <c r="F89" s="1">
-        <v>6.54</v>
+        <v>5.81</v>
       </c>
       <c r="G89" s="2">
-        <v>2.725</v>
+        <v>2.4208</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2978,10 +2978,10 @@
         <v>3400</v>
       </c>
       <c r="F90" s="1">
-        <v>4.64</v>
+        <v>5.15</v>
       </c>
       <c r="G90" s="2">
-        <v>1.3647</v>
+        <v>1.5147</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3017,10 +3017,10 @@
         <v>4200</v>
       </c>
       <c r="F92" s="1">
-        <v>8.02</v>
+        <v>7.71</v>
       </c>
       <c r="G92" s="2">
-        <v>1.9095</v>
+        <v>1.8357</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3040,10 +3040,10 @@
         <v>5100</v>
       </c>
       <c r="F93" s="1">
-        <v>8.210000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="G93" s="2">
-        <v>1.6098</v>
+        <v>1.4941</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3063,10 +3063,10 @@
         <v>5300</v>
       </c>
       <c r="F94" s="1">
-        <v>6.97</v>
+        <v>7.68</v>
       </c>
       <c r="G94" s="2">
-        <v>1.3151</v>
+        <v>1.4491</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3086,10 +3086,10 @@
         <v>4400</v>
       </c>
       <c r="F95" s="1">
-        <v>6.38</v>
+        <v>7.24</v>
       </c>
       <c r="G95" s="2">
-        <v>1.45</v>
+        <v>1.6455</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3109,10 +3109,10 @@
         <v>3400</v>
       </c>
       <c r="F96" s="1">
-        <v>6.18</v>
+        <v>6.34</v>
       </c>
       <c r="G96" s="2">
-        <v>1.8176</v>
+        <v>1.8647</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3132,10 +3132,10 @@
         <v>2900</v>
       </c>
       <c r="F97" s="1">
-        <v>6.09</v>
+        <v>5.86</v>
       </c>
       <c r="G97" s="2">
-        <v>2.1</v>
+        <v>2.0207</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3155,10 +3155,10 @@
         <v>3300</v>
       </c>
       <c r="F98" s="1">
-        <v>5.92</v>
+        <v>6.43</v>
       </c>
       <c r="G98" s="2">
-        <v>1.7939</v>
+        <v>1.9485</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3178,10 +3178,10 @@
         <v>2100</v>
       </c>
       <c r="F99" s="1">
-        <v>5.36</v>
+        <v>5.32</v>
       </c>
       <c r="G99" s="2">
-        <v>2.5524</v>
+        <v>2.5333</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3217,10 +3217,10 @@
         <v>4000</v>
       </c>
       <c r="F101" s="1">
-        <v>8.58</v>
+        <v>7.34</v>
       </c>
       <c r="G101" s="2">
-        <v>2.145</v>
+        <v>1.835</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3240,10 +3240,10 @@
         <v>5100</v>
       </c>
       <c r="F102" s="1">
-        <v>8.24</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G102" s="2">
-        <v>1.6157</v>
+        <v>1.6275</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3263,10 +3263,10 @@
         <v>4700</v>
       </c>
       <c r="F103" s="1">
-        <v>6.8</v>
+        <v>7.15</v>
       </c>
       <c r="G103" s="2">
-        <v>1.4468</v>
+        <v>1.5213</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3286,10 +3286,10 @@
         <v>4000</v>
       </c>
       <c r="F104" s="1">
-        <v>6.25</v>
+        <v>7.83</v>
       </c>
       <c r="G104" s="2">
-        <v>1.5625</v>
+        <v>1.9575</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3309,10 +3309,10 @@
         <v>4000</v>
       </c>
       <c r="F105" s="1">
-        <v>7.33</v>
+        <v>6.69</v>
       </c>
       <c r="G105" s="2">
-        <v>1.8325</v>
+        <v>1.6725</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3332,10 +3332,10 @@
         <v>2700</v>
       </c>
       <c r="F106" s="1">
-        <v>7.14</v>
+        <v>6.25</v>
       </c>
       <c r="G106" s="2">
-        <v>2.6444</v>
+        <v>2.3148</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3355,10 +3355,10 @@
         <v>2400</v>
       </c>
       <c r="F107" s="1">
-        <v>6.66</v>
+        <v>5.61</v>
       </c>
       <c r="G107" s="2">
-        <v>2.775</v>
+        <v>2.3375</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3378,10 +3378,10 @@
         <v>3200</v>
       </c>
       <c r="F108" s="1">
-        <v>5.66</v>
+        <v>4.9</v>
       </c>
       <c r="G108" s="2">
-        <v>1.7688</v>
+        <v>1.5312</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3417,10 +3417,10 @@
         <v>5900</v>
       </c>
       <c r="F110" s="1">
-        <v>9.039999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="G110" s="2">
-        <v>1.5322</v>
+        <v>1.7864</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3440,10 +3440,10 @@
         <v>5600</v>
       </c>
       <c r="F111" s="1">
-        <v>9.43</v>
+        <v>11.38</v>
       </c>
       <c r="G111" s="2">
-        <v>1.6839</v>
+        <v>2.0321</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3463,10 +3463,10 @@
         <v>4700</v>
       </c>
       <c r="F112" s="1">
-        <v>9.029999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G112" s="2">
-        <v>1.9213</v>
+        <v>2.0277</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3486,10 +3486,10 @@
         <v>5800</v>
       </c>
       <c r="F113" s="1">
-        <v>8.42</v>
+        <v>8.1</v>
       </c>
       <c r="G113" s="2">
-        <v>1.4517</v>
+        <v>1.3966</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3509,10 +3509,10 @@
         <v>5200</v>
       </c>
       <c r="F114" s="1">
-        <v>7.4</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G114" s="2">
-        <v>1.4231</v>
+        <v>1.6404</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3532,10 +3532,10 @@
         <v>4600</v>
       </c>
       <c r="F115" s="1">
-        <v>7.08</v>
+        <v>7.44</v>
       </c>
       <c r="G115" s="2">
-        <v>1.5391</v>
+        <v>1.6174</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3571,10 +3571,10 @@
         <v>3800</v>
       </c>
       <c r="F117" s="1">
-        <v>5.73</v>
+        <v>6.96</v>
       </c>
       <c r="G117" s="2">
-        <v>1.5079</v>
+        <v>1.8316</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3594,10 +3594,10 @@
         <v>4600</v>
       </c>
       <c r="F118" s="1">
-        <v>8.33</v>
+        <v>7.27</v>
       </c>
       <c r="G118" s="2">
-        <v>1.8109</v>
+        <v>1.5804</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3633,10 +3633,10 @@
         <v>3400</v>
       </c>
       <c r="F120" s="1">
-        <v>9.31</v>
+        <v>10.12</v>
       </c>
       <c r="G120" s="2">
-        <v>2.7382</v>
+        <v>2.9765</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3656,10 +3656,10 @@
         <v>3600</v>
       </c>
       <c r="F121" s="1">
-        <v>10.52</v>
+        <v>11.06</v>
       </c>
       <c r="G121" s="2">
-        <v>2.9222</v>
+        <v>3.0722</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3679,10 +3679,10 @@
         <v>5500</v>
       </c>
       <c r="F122" s="1">
-        <v>10.16</v>
+        <v>10.5</v>
       </c>
       <c r="G122" s="2">
-        <v>1.8473</v>
+        <v>1.9091</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3702,10 +3702,10 @@
         <v>5000</v>
       </c>
       <c r="F123" s="1">
-        <v>10.07</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G123" s="2">
-        <v>2.014</v>
+        <v>1.928</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3725,10 +3725,10 @@
         <v>3800</v>
       </c>
       <c r="F124" s="1">
-        <v>9.09</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G124" s="2">
-        <v>2.3921</v>
+        <v>2.4895</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3748,10 +3748,10 @@
         <v>2900</v>
       </c>
       <c r="F125" s="1">
-        <v>7.64</v>
+        <v>6.3</v>
       </c>
       <c r="G125" s="2">
-        <v>2.6345</v>
+        <v>2.1724</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3771,10 +3771,10 @@
         <v>3400</v>
       </c>
       <c r="F126" s="1">
-        <v>8.23</v>
+        <v>5.67</v>
       </c>
       <c r="G126" s="2">
-        <v>2.4206</v>
+        <v>1.6676</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3794,10 +3794,10 @@
         <v>2700</v>
       </c>
       <c r="F127" s="1">
-        <v>7.65</v>
+        <v>6.56</v>
       </c>
       <c r="G127" s="2">
-        <v>2.8333</v>
+        <v>2.4296</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3833,10 +3833,10 @@
         <v>2800</v>
       </c>
       <c r="F129" s="1">
-        <v>7.58</v>
+        <v>7.75</v>
       </c>
       <c r="G129" s="2">
-        <v>2.7071</v>
+        <v>2.7679</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3856,10 +3856,10 @@
         <v>2700</v>
       </c>
       <c r="F130" s="1">
-        <v>7.41</v>
+        <v>7.34</v>
       </c>
       <c r="G130" s="2">
-        <v>2.7444</v>
+        <v>2.7185</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3879,10 +3879,10 @@
         <v>2800</v>
       </c>
       <c r="F131" s="1">
-        <v>6.81</v>
+        <v>7.14</v>
       </c>
       <c r="G131" s="2">
-        <v>2.4321</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3902,10 +3902,10 @@
         <v>3800</v>
       </c>
       <c r="F132" s="1">
-        <v>7.33</v>
+        <v>6.76</v>
       </c>
       <c r="G132" s="2">
-        <v>1.9289</v>
+        <v>1.7789</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3925,10 +3925,10 @@
         <v>2600</v>
       </c>
       <c r="F133" s="1">
-        <v>6.17</v>
+        <v>6.35</v>
       </c>
       <c r="G133" s="2">
-        <v>2.3731</v>
+        <v>2.4423</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3948,10 +3948,10 @@
         <v>2100</v>
       </c>
       <c r="F134" s="1">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="G134" s="2">
-        <v>2.9381</v>
+        <v>2.919</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3971,10 +3971,10 @@
         <v>2200</v>
       </c>
       <c r="F135" s="1">
-        <v>5.68</v>
+        <v>5.51</v>
       </c>
       <c r="G135" s="2">
-        <v>2.5818</v>
+        <v>2.5045</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3994,10 +3994,10 @@
         <v>3100</v>
       </c>
       <c r="F136" s="1">
-        <v>4.86</v>
+        <v>5.05</v>
       </c>
       <c r="G136" s="2">
-        <v>1.5677</v>
+        <v>1.629</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4033,10 +4033,10 @@
         <v>4800</v>
       </c>
       <c r="F138" s="1">
-        <v>7.62</v>
+        <v>7.94</v>
       </c>
       <c r="G138" s="2">
-        <v>1.5875</v>
+        <v>1.6542</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4056,10 +4056,10 @@
         <v>5700</v>
       </c>
       <c r="F139" s="1">
-        <v>9.15</v>
+        <v>8.26</v>
       </c>
       <c r="G139" s="2">
-        <v>1.6053</v>
+        <v>1.4491</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4079,10 +4079,10 @@
         <v>5700</v>
       </c>
       <c r="F140" s="1">
-        <v>7.62</v>
+        <v>7.51</v>
       </c>
       <c r="G140" s="2">
-        <v>1.3368</v>
+        <v>1.3175</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4102,10 +4102,10 @@
         <v>4900</v>
       </c>
       <c r="F141" s="1">
-        <v>7.57</v>
+        <v>7.31</v>
       </c>
       <c r="G141" s="2">
-        <v>1.5449</v>
+        <v>1.4918</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4125,10 +4125,10 @@
         <v>3100</v>
       </c>
       <c r="F142" s="1">
-        <v>7.25</v>
+        <v>6.87</v>
       </c>
       <c r="G142" s="2">
-        <v>2.3387</v>
+        <v>2.2161</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4148,10 +4148,10 @@
         <v>4700</v>
       </c>
       <c r="F143" s="1">
-        <v>7.09</v>
+        <v>6.47</v>
       </c>
       <c r="G143" s="2">
-        <v>1.5085</v>
+        <v>1.3766</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4171,10 +4171,10 @@
         <v>3900</v>
       </c>
       <c r="F144" s="1">
-        <v>5.87</v>
+        <v>5.75</v>
       </c>
       <c r="G144" s="2">
-        <v>1.5051</v>
+        <v>1.4744</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4194,10 +4194,10 @@
         <v>2600</v>
       </c>
       <c r="F145" s="1">
-        <v>5.12</v>
+        <v>5.37</v>
       </c>
       <c r="G145" s="2">
-        <v>1.9692</v>
+        <v>2.0654</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>3500</v>
       </c>
       <c r="F147" s="1">
-        <v>8.029999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="G147" s="2">
-        <v>2.2943</v>
+        <v>2.2143</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4256,401 +4256,378 @@
         <v>2500</v>
       </c>
       <c r="F148" s="1">
-        <v>8.699999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G148" s="2">
-        <v>3.48</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B149" t="s">
         <v>183</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="E149">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="F149" s="1">
-        <v>10.27</v>
+        <v>8.31</v>
       </c>
       <c r="G149" s="2">
-        <v>4.108</v>
+        <v>2.3083</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
         <v>183</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E150">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F150" s="1">
-        <v>8.630000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="G150" s="2">
-        <v>2.3972</v>
+        <v>2.3371</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B151" t="s">
         <v>183</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="F151" s="1">
-        <v>8.07</v>
+        <v>7.31</v>
       </c>
       <c r="G151" s="2">
-        <v>2.3057</v>
+        <v>2.5207</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B152" t="s">
         <v>183</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E152">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="F152" s="1">
-        <v>7.63</v>
+        <v>6.86</v>
       </c>
       <c r="G152" s="2">
-        <v>2.631</v>
+        <v>1.8541</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B153" t="s">
         <v>183</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="F153" s="1">
-        <v>7.61</v>
+        <v>6.66</v>
       </c>
       <c r="G153" s="2">
-        <v>2.0568</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B154" t="s">
         <v>183</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E154">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F154" s="1">
-        <v>6.13</v>
+        <v>6.79</v>
       </c>
       <c r="G154" s="2">
-        <v>2.0433</v>
+        <v>2.3414</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
         <v>183</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E155">
         <v>2900</v>
       </c>
       <c r="F155" s="1">
-        <v>5.91</v>
+        <v>6.57</v>
       </c>
       <c r="G155" s="2">
-        <v>2.0379</v>
+        <v>2.2655</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C156">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="F156" s="1">
-        <v>6.54</v>
+        <v>8.19</v>
       </c>
       <c r="G156" s="2">
-        <v>2.2552</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B157" t="s">
         <v>193</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
       <c r="E157">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="F157" s="1">
-        <v>7.69</v>
+        <v>8.73</v>
       </c>
       <c r="G157" s="2">
-        <v>1.4788</v>
+        <v>2.1825</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B158" t="s">
         <v>193</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E158">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="F158" s="1">
-        <v>8.59</v>
+        <v>8.41</v>
       </c>
       <c r="G158" s="2">
-        <v>2.1475</v>
+        <v>1.5868</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
         <v>193</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>5300</v>
+        <v>3600</v>
       </c>
       <c r="F159" s="1">
-        <v>9.01</v>
+        <v>7.41</v>
       </c>
       <c r="G159" s="2">
-        <v>1.7</v>
+        <v>2.0583</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B160" t="s">
         <v>193</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E160">
-        <v>3600</v>
+        <v>5200</v>
       </c>
       <c r="F160" s="1">
-        <v>8.460000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="G160" s="2">
-        <v>2.35</v>
+        <v>1.3788</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B161" t="s">
         <v>193</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E161">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="F161" s="1">
-        <v>7.33</v>
+        <v>7.44</v>
       </c>
       <c r="G161" s="2">
-        <v>1.4096</v>
+        <v>2.6571</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" t="s">
         <v>193</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E162">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="F162" s="1">
-        <v>7.68</v>
+        <v>6.61</v>
       </c>
       <c r="G162" s="2">
-        <v>2.7429</v>
+        <v>1.6122</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B163" t="s">
         <v>193</v>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E163">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="F163" s="1">
-        <v>6.56</v>
+        <v>5.47</v>
       </c>
       <c r="G163" s="2">
-        <v>1.6</v>
+        <v>2.6048</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B164" t="s">
         <v>193</v>
       </c>
       <c r="C164">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="F164" s="1">
-        <v>5.32</v>
+        <v>1.54</v>
       </c>
       <c r="G164" s="2">
-        <v>2.5333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>201</v>
-      </c>
-      <c r="B165" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165">
-        <v>9</v>
-      </c>
-      <c r="D165" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165">
-        <v>2400</v>
-      </c>
-      <c r="F165" s="1">
-        <v>5.86</v>
-      </c>
-      <c r="G165" s="2">
-        <v>2.4417</v>
+        <v>0.6417</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
+++ b/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="203">
   <si>
     <t>Batter</t>
   </si>
@@ -37,6 +37,9 @@
     <t>DKPts/$</t>
   </si>
   <si>
+    <t>Homer</t>
+  </si>
+  <si>
     <t>Cedric Mullins</t>
   </si>
   <si>
@@ -61,201 +64,201 @@
     <t>1B/OF</t>
   </si>
   <si>
+    <t>Maikel Franco</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>Rio Ruiz</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Freddy Galvis</t>
+  </si>
+  <si>
+    <t>2B/SS</t>
+  </si>
+  <si>
     <t>Chance Sisco</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Austin Hays</t>
-  </si>
-  <si>
-    <t>Maikel Franco</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>Freddy Galvis</t>
-  </si>
-  <si>
-    <t>2B/SS</t>
-  </si>
-  <si>
-    <t>Yolmer Sanchez</t>
+    <t>Enrique Hernandez</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>2B/OF</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Marwin Gonzalez</t>
+  </si>
+  <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
+    <t>1B/3B</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Josh Donaldson</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Miguel Sano</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Jake Cave</t>
+  </si>
+  <si>
+    <t>Ryan Jeffers</t>
+  </si>
+  <si>
+    <t>Andrelton Simmons</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>1B/2B</t>
+  </si>
+  <si>
+    <t>Christian Yelich</t>
+  </si>
+  <si>
+    <t>Travis Shaw</t>
+  </si>
+  <si>
+    <t>Lorenzo Cain</t>
+  </si>
+  <si>
+    <t>Jackie Bradley</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>3B/SS</t>
+  </si>
+  <si>
+    <t>Omar Narvaez</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Adam Frazier</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>Ke'Bryan Hayes</t>
+  </si>
+  <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
+    <t>Colin Moran</t>
+  </si>
+  <si>
+    <t>Gregory Polanco</t>
+  </si>
+  <si>
+    <t>Kevin Newman</t>
+  </si>
+  <si>
+    <t>Jacob Stallings</t>
+  </si>
+  <si>
+    <t>Anthony Alford</t>
+  </si>
+  <si>
+    <t>Chad Kuhl</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>Willson Contreras</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Jason Heyward</t>
+  </si>
+  <si>
+    <t>David Bote</t>
   </si>
   <si>
     <t>2B/3B</t>
   </si>
   <si>
-    <t>Enrique Hernandez</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>2B/OF</t>
-  </si>
-  <si>
-    <t>Alex Verdugo</t>
-  </si>
-  <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
-    <t>Hunter Renfroe</t>
-  </si>
-  <si>
-    <t>Marwin Gonzalez</t>
-  </si>
-  <si>
-    <t>Christian Vazquez</t>
-  </si>
-  <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
-    <t>1B/3B</t>
-  </si>
-  <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>Josh Donaldson</t>
-  </si>
-  <si>
-    <t>Jorge Polanco</t>
-  </si>
-  <si>
-    <t>Miguel Sano</t>
-  </si>
-  <si>
-    <t>Byron Buxton</t>
-  </si>
-  <si>
-    <t>Andrelton Simmons</t>
-  </si>
-  <si>
-    <t>Jake Cave</t>
-  </si>
-  <si>
-    <t>Ryan Jeffers</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>Lorenzo Cain</t>
-  </si>
-  <si>
-    <t>Christian Yelich</t>
-  </si>
-  <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>1B/2B</t>
-  </si>
-  <si>
-    <t>Travis Shaw</t>
-  </si>
-  <si>
-    <t>Jackie Bradley</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
-    <t>3B/SS</t>
-  </si>
-  <si>
-    <t>Omar Narvaez</t>
-  </si>
-  <si>
-    <t>Brandon Woodruff</t>
-  </si>
-  <si>
-    <t>Adam Frazier</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>Ke'Bryan Hayes</t>
-  </si>
-  <si>
-    <t>Bryan Reynolds</t>
-  </si>
-  <si>
-    <t>Colin Moran</t>
-  </si>
-  <si>
-    <t>Gregory Polanco</t>
-  </si>
-  <si>
-    <t>Kevin Newman</t>
-  </si>
-  <si>
-    <t>Anthony Alford</t>
-  </si>
-  <si>
-    <t>Jacob Stallings</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Ian Happ</t>
-  </si>
-  <si>
-    <t>CHC</t>
-  </si>
-  <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Jason Heyward</t>
-  </si>
-  <si>
-    <t>David Bote</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
@@ -316,7 +319,7 @@
     <t>Jean Segura</t>
   </si>
   <si>
-    <t>Scott Kingery</t>
+    <t>Roman Quinn</t>
   </si>
   <si>
     <t>Aaron Nola</t>
@@ -328,12 +331,12 @@
     <t>TB</t>
   </si>
   <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
     <t>Brandon Lowe</t>
   </si>
   <si>
@@ -397,15 +400,15 @@
     <t>Paul DeJong</t>
   </si>
   <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
     <t>Yadier Molina</t>
   </si>
   <si>
     <t>Dylan Carlson</t>
   </si>
   <si>
-    <t>Tyler O'Neill</t>
-  </si>
-  <si>
     <t>Justin Williams</t>
   </si>
   <si>
@@ -457,18 +460,18 @@
     <t>Cody Bellinger</t>
   </si>
   <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
     <t>Max Muncy</t>
   </si>
   <si>
-    <t>Will Smith</t>
+    <t>A.J. Pollock</t>
   </si>
   <si>
     <t>Gavin Lux</t>
   </si>
   <si>
-    <t>A.J. Pollock</t>
-  </si>
-  <si>
     <t>Clayton Kershaw</t>
   </si>
   <si>
@@ -478,39 +481,39 @@
     <t>COL</t>
   </si>
   <si>
+    <t>Josh Fuentes</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>C.J. Cron</t>
+  </si>
+  <si>
+    <t>Garrett Hampson</t>
+  </si>
+  <si>
     <t>Ryan McMahon</t>
   </si>
   <si>
-    <t>Trevor Story</t>
-  </si>
-  <si>
-    <t>Charlie Blackmon</t>
-  </si>
-  <si>
-    <t>C.J. Cron</t>
-  </si>
-  <si>
-    <t>Garrett Hampson</t>
-  </si>
-  <si>
-    <t>Josh Fuentes</t>
-  </si>
-  <si>
     <t>Elias Diaz</t>
   </si>
   <si>
     <t>German Marquez</t>
   </si>
   <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
     <t>David Peralta</t>
   </si>
   <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
     <t>Eduardo Escobar</t>
   </si>
   <si>
@@ -532,24 +535,21 @@
     <t>Madison Bumgarner</t>
   </si>
   <si>
-    <t>Trent Grisham</t>
+    <t>Fernando Tatis</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>Fernando Tatis</t>
-  </si>
-  <si>
     <t>Manny Machado</t>
   </si>
   <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
     <t>Eric Hosmer</t>
   </si>
   <si>
-    <t>Tommy Pham</t>
-  </si>
-  <si>
     <t>Wil Myers</t>
   </si>
   <si>
@@ -559,6 +559,9 @@
     <t>Victor Caratini</t>
   </si>
   <si>
+    <t>Jurickson Profar</t>
+  </si>
+  <si>
     <t>Yu Darvish</t>
   </si>
   <si>
@@ -616,7 +619,7 @@
     <t>Hunter Dozier</t>
   </si>
   <si>
-    <t>Nicky Lopez</t>
+    <t>Kyle Isbel</t>
   </si>
   <si>
     <t>Michael Taylor</t>
@@ -957,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,174 +988,198 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2100</v>
       </c>
       <c r="F2" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.4333</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4.2857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3900</v>
       </c>
       <c r="F3" s="1">
-        <v>9.17</v>
+        <v>9.33</v>
       </c>
       <c r="G3" s="2">
-        <v>2.3513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2.3923</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>3500</v>
       </c>
       <c r="F4" s="1">
-        <v>8.56</v>
+        <v>8.9</v>
       </c>
       <c r="G4" s="2">
-        <v>2.4457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2.5429</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>3900</v>
       </c>
       <c r="F5" s="1">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="G5" s="2">
-        <v>2.0256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2.0667</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>3100</v>
+        <v>4100</v>
       </c>
       <c r="F6" s="1">
-        <v>7.54</v>
+        <v>6.54</v>
       </c>
       <c r="G6" s="2">
-        <v>2.4323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.5951</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>3500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.68</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2100</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.2381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="1">
-        <v>6.16</v>
+        <v>6.73</v>
       </c>
       <c r="G8" s="2">
-        <v>1.5024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.2048</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1164,18 +1191,21 @@
         <v>2800</v>
       </c>
       <c r="F9" s="1">
-        <v>6.95</v>
+        <v>6.3</v>
       </c>
       <c r="G9" s="2">
-        <v>2.4821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>2.25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1184,16 +1214,19 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="F10" s="1">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="G10" s="2">
-        <v>1.7229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.9581</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1210,13 +1243,16 @@
         <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>8.130000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2.9333</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1227,19 +1263,22 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>3900</v>
       </c>
       <c r="F12" s="1">
-        <v>8.300000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="G12" s="2">
-        <v>2.1282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>2.1205</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1250,19 +1289,22 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>4300</v>
       </c>
       <c r="F13" s="1">
-        <v>8.699999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2.0186</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1279,13 +1321,16 @@
         <v>5400</v>
       </c>
       <c r="F14" s="1">
-        <v>8.25</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>1.5278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.5685</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1296,19 +1341,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>5400</v>
       </c>
       <c r="F15" s="1">
-        <v>7.72</v>
+        <v>7.84</v>
       </c>
       <c r="G15" s="2">
-        <v>1.4296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.4519</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1319,19 +1367,22 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>3200</v>
       </c>
       <c r="F16" s="1">
-        <v>6.87</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>2.1469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2.6406</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1348,13 +1399,16 @@
         <v>3300</v>
       </c>
       <c r="F17" s="1">
-        <v>6.41</v>
+        <v>6.93</v>
       </c>
       <c r="G17" s="2">
-        <v>1.9424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2.1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1365,19 +1419,22 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>4700</v>
       </c>
       <c r="F18" s="1">
-        <v>6.41</v>
+        <v>6.58</v>
       </c>
       <c r="G18" s="2">
-        <v>1.3638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1.4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1394,13 +1451,16 @@
         <v>4000</v>
       </c>
       <c r="F19" s="1">
-        <v>6.04</v>
+        <v>7.16</v>
       </c>
       <c r="G19" s="2">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1.79</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1411,19 +1471,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>3800</v>
       </c>
       <c r="F20" s="1">
-        <v>6.75</v>
+        <v>8.09</v>
       </c>
       <c r="G20" s="2">
-        <v>1.7763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2.1289</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1434,19 +1497,22 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>4500</v>
       </c>
       <c r="F21" s="1">
-        <v>6.8</v>
+        <v>7.99</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.7756</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1463,13 +1529,16 @@
         <v>3300</v>
       </c>
       <c r="F22" s="1">
-        <v>6.71</v>
+        <v>7.23</v>
       </c>
       <c r="G22" s="2">
-        <v>2.0333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2.1909</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1480,19 +1549,22 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>3700</v>
       </c>
       <c r="F23" s="1">
-        <v>8.050000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>2.1757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>2.3541</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1503,19 +1575,22 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>3700</v>
       </c>
       <c r="F24" s="1">
-        <v>6.5</v>
+        <v>7.27</v>
       </c>
       <c r="G24" s="2">
-        <v>1.7568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1.9649</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1526,19 +1601,22 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="F25" s="1">
-        <v>6.08</v>
+        <v>8.1</v>
       </c>
       <c r="G25" s="2">
-        <v>1.4476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3.375</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1549,19 +1627,22 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>2400</v>
       </c>
       <c r="F26" s="1">
-        <v>6.49</v>
+        <v>5.97</v>
       </c>
       <c r="G26" s="2">
-        <v>2.7042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2.4875</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1572,19 +1653,22 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>2400</v>
+        <v>4200</v>
       </c>
       <c r="F27" s="1">
-        <v>5.54</v>
+        <v>5.33</v>
       </c>
       <c r="G27" s="2">
-        <v>2.3083</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1.269</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1599,8 +1683,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1617,13 +1702,16 @@
         <v>4100</v>
       </c>
       <c r="F29" s="1">
-        <v>7.17</v>
+        <v>7.06</v>
       </c>
       <c r="G29" s="2">
-        <v>1.7488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1.722</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1634,21 +1722,24 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E30">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="F30" s="1">
-        <v>7.45</v>
+        <v>8.19</v>
       </c>
       <c r="G30" s="2">
-        <v>2.3281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1.7426</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -1657,21 +1748,24 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>5600</v>
       </c>
       <c r="F31" s="1">
-        <v>7.84</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G31" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1.4786</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -1680,19 +1774,22 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F32" s="1">
-        <v>7.53</v>
+        <v>7.1</v>
       </c>
       <c r="G32" s="2">
-        <v>1.6021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1.5435</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1703,19 +1800,22 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="F33" s="1">
-        <v>6.57</v>
+        <v>7.14</v>
       </c>
       <c r="G33" s="2">
-        <v>1.4283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2.2312</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1726,19 +1826,22 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>4100</v>
       </c>
       <c r="F34" s="1">
-        <v>6.18</v>
+        <v>6.38</v>
       </c>
       <c r="G34" s="2">
-        <v>1.5073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.5561</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1755,13 +1858,16 @@
         <v>3000</v>
       </c>
       <c r="F35" s="1">
-        <v>5.51</v>
+        <v>5.91</v>
       </c>
       <c r="G35" s="2">
-        <v>1.8367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1.97</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1772,19 +1878,22 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>3000</v>
       </c>
       <c r="F36" s="1">
-        <v>5.17</v>
+        <v>6.24</v>
       </c>
       <c r="G36" s="2">
-        <v>1.7233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>2.08</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1799,8 +1908,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1817,13 +1927,16 @@
         <v>3400</v>
       </c>
       <c r="F38" s="1">
-        <v>6.69</v>
+        <v>7.12</v>
       </c>
       <c r="G38" s="2">
-        <v>1.9676</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>2.0941</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1834,19 +1947,22 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>4400</v>
       </c>
       <c r="F39" s="1">
-        <v>7.34</v>
+        <v>7.99</v>
       </c>
       <c r="G39" s="2">
-        <v>1.6682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1.8159</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1857,19 +1973,22 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>3200</v>
       </c>
       <c r="F40" s="1">
-        <v>6.96</v>
+        <v>7.43</v>
       </c>
       <c r="G40" s="2">
-        <v>2.175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2.3219</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1880,19 +1999,22 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>3400</v>
       </c>
       <c r="F41" s="1">
-        <v>6.92</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2">
-        <v>2.0353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>2.0588</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1903,19 +2025,22 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>2900</v>
       </c>
       <c r="F42" s="1">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
       <c r="G42" s="2">
-        <v>2.2276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>2.2621</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1932,13 +2057,16 @@
         <v>3200</v>
       </c>
       <c r="F43" s="1">
-        <v>6.49</v>
+        <v>6.19</v>
       </c>
       <c r="G43" s="2">
-        <v>2.0281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>1.9344</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -1949,19 +2077,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F44" s="1">
-        <v>6.26</v>
+        <v>6.5</v>
       </c>
       <c r="G44" s="2">
-        <v>2.0867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>2.3214</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1972,19 +2103,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="1">
-        <v>5.06</v>
+        <v>5.9</v>
       </c>
       <c r="G45" s="2">
-        <v>1.8071</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1.9667</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1999,8 +2133,9 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -2011,19 +2146,22 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>4400</v>
       </c>
       <c r="F47" s="1">
-        <v>8.26</v>
+        <v>8.66</v>
       </c>
       <c r="G47" s="2">
-        <v>1.8773</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1.9682</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2034,19 +2172,22 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>5000</v>
       </c>
       <c r="F48" s="1">
-        <v>7.48</v>
+        <v>8.59</v>
       </c>
       <c r="G48" s="2">
-        <v>1.496</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1.718</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2057,19 +2198,22 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>4800</v>
       </c>
       <c r="F49" s="1">
-        <v>7.27</v>
+        <v>7.9</v>
       </c>
       <c r="G49" s="2">
-        <v>1.5146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1.6458</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -2080,19 +2224,22 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>5000</v>
       </c>
       <c r="F50" s="1">
-        <v>7.14</v>
+        <v>7.38</v>
       </c>
       <c r="G50" s="2">
-        <v>1.428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>1.476</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2103,19 +2250,22 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>3400</v>
       </c>
       <c r="F51" s="1">
-        <v>6.96</v>
+        <v>7.87</v>
       </c>
       <c r="G51" s="2">
-        <v>2.0471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>2.3147</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2132,13 +2282,16 @@
         <v>5100</v>
       </c>
       <c r="F52" s="1">
-        <v>6.63</v>
+        <v>8.59</v>
       </c>
       <c r="G52" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>1.6843</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2149,19 +2302,22 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>3800</v>
       </c>
       <c r="F53" s="1">
-        <v>5.75</v>
+        <v>6.42</v>
       </c>
       <c r="G53" s="2">
-        <v>1.5132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>1.6895</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2172,21 +2328,24 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <v>3200</v>
       </c>
       <c r="F54" s="1">
-        <v>5.34</v>
+        <v>6.58</v>
       </c>
       <c r="G54" s="2">
-        <v>1.6687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>2.0562</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
@@ -2199,36 +2358,40 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>6000</v>
       </c>
       <c r="F56" s="1">
-        <v>8.289999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="G56" s="2">
-        <v>1.3817</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>1.3233</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
         <v>83</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2240,87 +2403,99 @@
         <v>5000</v>
       </c>
       <c r="F57" s="1">
-        <v>7.76</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G57" s="2">
-        <v>1.552</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.778</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>5400</v>
       </c>
       <c r="F58" s="1">
-        <v>8.19</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G58" s="2">
-        <v>1.5167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>1.5981</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>5400</v>
       </c>
       <c r="F59" s="1">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="G59" s="2">
-        <v>1.4481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1.4444</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>4800</v>
       </c>
       <c r="F60" s="1">
-        <v>6.58</v>
+        <v>7.57</v>
       </c>
       <c r="G60" s="2">
-        <v>1.3708</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1.5771</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -2332,64 +2507,73 @@
         <v>5000</v>
       </c>
       <c r="F61" s="1">
-        <v>5.98</v>
+        <v>7.15</v>
       </c>
       <c r="G61" s="2">
-        <v>1.196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1.43</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>4300</v>
       </c>
       <c r="F62" s="1">
-        <v>6.78</v>
+        <v>7.6</v>
       </c>
       <c r="G62" s="2">
-        <v>1.5767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>1.7674</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>3500</v>
       </c>
       <c r="F63" s="1">
-        <v>6.09</v>
+        <v>6.57</v>
       </c>
       <c r="G63" s="2">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1.8771</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -2399,128 +2583,144 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>3900</v>
       </c>
       <c r="F65" s="1">
-        <v>7.29</v>
+        <v>7.49</v>
       </c>
       <c r="G65" s="2">
-        <v>1.8692</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>1.9205</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>93</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>5000</v>
       </c>
       <c r="F66" s="1">
-        <v>7.39</v>
+        <v>7.82</v>
       </c>
       <c r="G66" s="2">
-        <v>1.478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>1.564</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>5500</v>
       </c>
       <c r="F67" s="1">
-        <v>6.92</v>
+        <v>7.83</v>
       </c>
       <c r="G67" s="2">
-        <v>1.2582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>1.4236</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>5500</v>
       </c>
       <c r="F68" s="1">
-        <v>6.96</v>
+        <v>7.18</v>
       </c>
       <c r="G68" s="2">
-        <v>1.2655</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>1.3055</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>3100</v>
       </c>
       <c r="F69" s="1">
-        <v>6.74</v>
+        <v>8.02</v>
       </c>
       <c r="G69" s="2">
-        <v>2.1742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>2.5871</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -2532,18 +2732,21 @@
         <v>4800</v>
       </c>
       <c r="F70" s="1">
-        <v>6.45</v>
+        <v>9.27</v>
       </c>
       <c r="G70" s="2">
-        <v>1.3438</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1.9312</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -2555,41 +2758,47 @@
         <v>4500</v>
       </c>
       <c r="F71" s="1">
-        <v>5.59</v>
+        <v>6.22</v>
       </c>
       <c r="G71" s="2">
-        <v>1.2422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1.3822</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="F72" s="1">
-        <v>5.23</v>
+        <v>5.7</v>
       </c>
       <c r="G72" s="2">
-        <v>1.8034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>2.7143</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2599,82 +2808,92 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>3300</v>
       </c>
       <c r="F74" s="1">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="G74" s="2">
-        <v>2.3121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>2.3515</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
         <v>104</v>
-      </c>
-      <c r="B75" t="s">
-        <v>103</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>5300</v>
+        <v>3600</v>
       </c>
       <c r="F75" s="1">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="G75" s="2">
-        <v>1.5019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>2.1583</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="F76" s="1">
-        <v>7.37</v>
+        <v>7.49</v>
       </c>
       <c r="G76" s="2">
-        <v>2.0472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>1.4132</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2686,18 +2905,21 @@
         <v>4600</v>
       </c>
       <c r="F77" s="1">
-        <v>7.32</v>
+        <v>7.09</v>
       </c>
       <c r="G77" s="2">
-        <v>1.5913</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>1.5413</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2709,18 +2931,21 @@
         <v>4900</v>
       </c>
       <c r="F78" s="1">
-        <v>6.79</v>
+        <v>6.27</v>
       </c>
       <c r="G78" s="2">
-        <v>1.3857</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>1.2796</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -2732,64 +2957,73 @@
         <v>4100</v>
       </c>
       <c r="F79" s="1">
-        <v>6.06</v>
+        <v>6.1</v>
       </c>
       <c r="G79" s="2">
-        <v>1.478</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>1.4878</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>2900</v>
       </c>
       <c r="F80" s="1">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="G80" s="2">
-        <v>2.1138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>2.1241</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>4100</v>
       </c>
       <c r="F81" s="1">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="G81" s="2">
-        <v>1.3415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>1.3244</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2799,128 +3033,144 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>2700</v>
       </c>
       <c r="F83" s="1">
-        <v>6.76</v>
+        <v>7.04</v>
       </c>
       <c r="G83" s="2">
-        <v>2.5037</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>2.6074</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
         <v>114</v>
-      </c>
-      <c r="B84" t="s">
-        <v>113</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>4900</v>
       </c>
       <c r="F84" s="1">
-        <v>7.21</v>
+        <v>7.29</v>
       </c>
       <c r="G84" s="2">
-        <v>1.4714</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>1.4878</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>3500</v>
       </c>
       <c r="F85" s="1">
-        <v>7.09</v>
+        <v>7</v>
       </c>
       <c r="G85" s="2">
-        <v>2.0257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>3400</v>
       </c>
       <c r="F86" s="1">
-        <v>7.2</v>
+        <v>6.85</v>
       </c>
       <c r="G86" s="2">
-        <v>2.1176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>2.0147</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>3400</v>
       </c>
       <c r="F87" s="1">
-        <v>6.96</v>
+        <v>7.4</v>
       </c>
       <c r="G87" s="2">
-        <v>2.0471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>2.1765</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -2932,41 +3182,47 @@
         <v>2500</v>
       </c>
       <c r="F88" s="1">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="G88" s="2">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>2.404</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E89">
         <v>2400</v>
       </c>
       <c r="F89" s="1">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="G89" s="2">
-        <v>2.4208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>2.4792</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -2978,18 +3234,21 @@
         <v>3400</v>
       </c>
       <c r="F90" s="1">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="G90" s="2">
-        <v>1.5147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>1.4853</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -2999,82 +3258,92 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E92">
         <v>4200</v>
       </c>
       <c r="F92" s="1">
-        <v>7.71</v>
+        <v>7.66</v>
       </c>
       <c r="G92" s="2">
-        <v>1.8357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>1.8238</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
         <v>124</v>
-      </c>
-      <c r="B93" t="s">
-        <v>123</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>5100</v>
       </c>
       <c r="F93" s="1">
-        <v>7.62</v>
+        <v>8.49</v>
       </c>
       <c r="G93" s="2">
-        <v>1.4941</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>1.6647</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>5300</v>
       </c>
       <c r="F94" s="1">
-        <v>7.68</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G94" s="2">
-        <v>1.4491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>1.5509</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -3086,110 +3355,125 @@
         <v>4400</v>
       </c>
       <c r="F95" s="1">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
       <c r="G95" s="2">
-        <v>1.6455</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>1.6364</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F96" s="1">
-        <v>6.34</v>
+        <v>7.82</v>
       </c>
       <c r="G96" s="2">
-        <v>1.8647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>2.3697</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E97">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="F97" s="1">
-        <v>5.86</v>
+        <v>6.49</v>
       </c>
       <c r="G97" s="2">
-        <v>2.0207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>1.9088</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="F98" s="1">
-        <v>6.43</v>
+        <v>6.37</v>
       </c>
       <c r="G98" s="2">
-        <v>1.9485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>2.1966</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>2100</v>
       </c>
       <c r="F99" s="1">
-        <v>5.32</v>
+        <v>5.51</v>
       </c>
       <c r="G99" s="2">
-        <v>2.5333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>2.6238</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -3199,82 +3483,92 @@
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>4000</v>
       </c>
       <c r="F101" s="1">
-        <v>7.34</v>
+        <v>7.92</v>
       </c>
       <c r="G101" s="2">
-        <v>1.835</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>1.98</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
         <v>134</v>
-      </c>
-      <c r="B102" t="s">
-        <v>133</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>5100</v>
       </c>
       <c r="F102" s="1">
-        <v>8.300000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G102" s="2">
-        <v>1.6275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>1.8353</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>4700</v>
       </c>
       <c r="F103" s="1">
-        <v>7.15</v>
+        <v>7.75</v>
       </c>
       <c r="G103" s="2">
-        <v>1.5213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>1.6489</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -3286,87 +3580,99 @@
         <v>4000</v>
       </c>
       <c r="F104" s="1">
-        <v>7.83</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G104" s="2">
-        <v>1.9575</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>2.03</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C105">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E105">
         <v>4000</v>
       </c>
       <c r="F105" s="1">
-        <v>6.69</v>
+        <v>9.09</v>
       </c>
       <c r="G105" s="2">
-        <v>1.6725</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>2.2725</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C106">
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>2700</v>
       </c>
       <c r="F106" s="1">
-        <v>6.25</v>
+        <v>7.14</v>
       </c>
       <c r="G106" s="2">
-        <v>2.3148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>2.6444</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E107">
         <v>2400</v>
       </c>
       <c r="F107" s="1">
-        <v>5.61</v>
+        <v>6.63</v>
       </c>
       <c r="G107" s="2">
-        <v>2.3375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>2.7625</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -3378,18 +3684,21 @@
         <v>3200</v>
       </c>
       <c r="F108" s="1">
-        <v>4.9</v>
+        <v>5.13</v>
       </c>
       <c r="G108" s="2">
-        <v>1.5312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>1.6031</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -3399,36 +3708,40 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>5900</v>
       </c>
       <c r="F110" s="1">
-        <v>10.54</v>
+        <v>10.35</v>
       </c>
       <c r="G110" s="2">
-        <v>1.7864</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>1.7542</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s">
         <v>144</v>
-      </c>
-      <c r="B111" t="s">
-        <v>143</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -3440,172 +3753,194 @@
         <v>5600</v>
       </c>
       <c r="F111" s="1">
-        <v>11.38</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G111" s="2">
-        <v>2.0321</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>1.7179</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>4700</v>
       </c>
       <c r="F112" s="1">
-        <v>9.529999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G112" s="2">
-        <v>2.0277</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>1.9787</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>5800</v>
       </c>
       <c r="F113" s="1">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="G113" s="2">
-        <v>1.3966</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>1.3931</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C114">
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E114">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="F114" s="1">
-        <v>8.529999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G114" s="2">
-        <v>1.6404</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>2.0935</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115">
-        <v>4600</v>
-      </c>
-      <c r="F115" s="1">
-        <v>7.44</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1.6174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C116">
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>5200</v>
+      </c>
+      <c r="F116" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="F117" s="1">
-        <v>6.96</v>
+        <v>7.03</v>
       </c>
       <c r="G117" s="2">
-        <v>1.8316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>1.5283</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C118">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E118">
-        <v>4600</v>
+        <v>3800</v>
       </c>
       <c r="F118" s="1">
-        <v>7.27</v>
+        <v>7.18</v>
       </c>
       <c r="G118" s="2">
-        <v>1.5804</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>1.8895</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -3615,59 +3950,66 @@
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>3400</v>
       </c>
       <c r="F120" s="1">
-        <v>10.12</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G120" s="2">
-        <v>2.9765</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>2.5853</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" t="s">
         <v>154</v>
-      </c>
-      <c r="B121" t="s">
-        <v>153</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E121">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F121" s="1">
-        <v>11.06</v>
+        <v>10.09</v>
       </c>
       <c r="G121" s="2">
-        <v>3.0722</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>2.9676</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -3679,64 +4021,73 @@
         <v>5500</v>
       </c>
       <c r="F122" s="1">
-        <v>10.5</v>
+        <v>11.11</v>
       </c>
       <c r="G122" s="2">
-        <v>1.9091</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>2.02</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123">
         <v>5000</v>
       </c>
       <c r="F123" s="1">
-        <v>9.640000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G123" s="2">
-        <v>1.928</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>1.876</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>3800</v>
       </c>
       <c r="F124" s="1">
-        <v>9.460000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="G124" s="2">
-        <v>2.4895</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>2.6658</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C125">
         <v>6</v>
@@ -3748,64 +4099,73 @@
         <v>2900</v>
       </c>
       <c r="F125" s="1">
-        <v>6.3</v>
+        <v>7.97</v>
       </c>
       <c r="G125" s="2">
-        <v>2.1724</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>2.7483</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C126">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E126">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F126" s="1">
-        <v>5.67</v>
+        <v>7.34</v>
       </c>
       <c r="G126" s="2">
-        <v>1.6676</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>2.0389</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C127">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E127">
         <v>2700</v>
       </c>
       <c r="F127" s="1">
-        <v>6.56</v>
+        <v>6.98</v>
       </c>
       <c r="G127" s="2">
-        <v>2.4296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>2.5852</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -3815,105 +4175,118 @@
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F129" s="1">
-        <v>7.75</v>
+        <v>7.56</v>
       </c>
       <c r="G129" s="2">
-        <v>2.7679</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>2.8</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" t="s">
         <v>164</v>
-      </c>
-      <c r="B130" t="s">
-        <v>163</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F130" s="1">
-        <v>7.34</v>
+        <v>8.01</v>
       </c>
       <c r="G130" s="2">
-        <v>2.7185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>2.8607</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>2800</v>
       </c>
       <c r="F131" s="1">
-        <v>7.14</v>
+        <v>7.04</v>
       </c>
       <c r="G131" s="2">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>2.5143</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132">
         <v>3800</v>
       </c>
       <c r="F132" s="1">
-        <v>6.76</v>
+        <v>6.6</v>
       </c>
       <c r="G132" s="2">
-        <v>1.7789</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>1.7368</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -3925,64 +4298,73 @@
         <v>2600</v>
       </c>
       <c r="F133" s="1">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="G133" s="2">
-        <v>2.4423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>2.5077</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C134">
         <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E134">
         <v>2100</v>
       </c>
       <c r="F134" s="1">
-        <v>6.13</v>
+        <v>5.92</v>
       </c>
       <c r="G134" s="2">
-        <v>2.919</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>2.819</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C135">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>2200</v>
       </c>
       <c r="F135" s="1">
-        <v>5.51</v>
+        <v>5.62</v>
       </c>
       <c r="G135" s="2">
-        <v>2.5045</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>2.5545</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C136">
         <v>8</v>
@@ -3994,18 +4376,21 @@
         <v>3100</v>
       </c>
       <c r="F136" s="1">
-        <v>5.05</v>
+        <v>4.92</v>
       </c>
       <c r="G136" s="2">
-        <v>1.629</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>1.5871</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C137">
         <v>9</v>
@@ -4015,197 +4400,222 @@
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E138">
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="F138" s="1">
-        <v>7.94</v>
+        <v>8.74</v>
       </c>
       <c r="G138" s="2">
-        <v>1.6542</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>1.5333</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" t="s">
         <v>174</v>
-      </c>
-      <c r="B139" t="s">
-        <v>173</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>5700</v>
       </c>
       <c r="F139" s="1">
-        <v>8.26</v>
+        <v>8.02</v>
       </c>
       <c r="G139" s="2">
-        <v>1.4491</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>1.407</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C140">
         <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E140">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="F140" s="1">
-        <v>7.51</v>
+        <v>7.62</v>
       </c>
       <c r="G140" s="2">
-        <v>1.3175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>2.4581</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C141">
         <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141">
         <v>4900</v>
       </c>
       <c r="F141" s="1">
-        <v>7.31</v>
+        <v>7.22</v>
       </c>
       <c r="G141" s="2">
-        <v>1.4918</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>1.4735</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C142">
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>3100</v>
+        <v>4700</v>
       </c>
       <c r="F142" s="1">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="G142" s="2">
-        <v>2.2161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>1.466</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C143">
         <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E143">
-        <v>4700</v>
+        <v>3900</v>
       </c>
       <c r="F143" s="1">
-        <v>6.47</v>
+        <v>6.04</v>
       </c>
       <c r="G143" s="2">
-        <v>1.3766</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>1.5487</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C144">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E144">
-        <v>3900</v>
+        <v>2600</v>
       </c>
       <c r="F144" s="1">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="G144" s="2">
-        <v>1.4744</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>2.3038</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C145">
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="F145" s="1">
-        <v>5.37</v>
+        <v>5.77</v>
       </c>
       <c r="G145" s="2">
-        <v>2.0654</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>1.8031</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -4215,13 +4625,14 @@
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4233,87 +4644,99 @@
         <v>3500</v>
       </c>
       <c r="F147" s="1">
-        <v>7.75</v>
+        <v>7.4</v>
       </c>
       <c r="G147" s="2">
-        <v>2.2143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>2.1143</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" t="s">
         <v>184</v>
-      </c>
-      <c r="B148" t="s">
-        <v>183</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148">
         <v>2500</v>
       </c>
       <c r="F148" s="1">
-        <v>8.720000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="G148" s="2">
-        <v>3.488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>3.176</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>3600</v>
       </c>
       <c r="F149" s="1">
-        <v>8.31</v>
+        <v>7.92</v>
       </c>
       <c r="G149" s="2">
-        <v>2.3083</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>2.2</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E150">
         <v>3500</v>
       </c>
       <c r="F150" s="1">
-        <v>8.18</v>
+        <v>7.49</v>
       </c>
       <c r="G150" s="2">
-        <v>2.3371</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>2.14</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -4325,156 +4748,177 @@
         <v>2900</v>
       </c>
       <c r="F151" s="1">
-        <v>7.31</v>
+        <v>7.56</v>
       </c>
       <c r="G151" s="2">
-        <v>2.5207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>2.6069</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C152">
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E152">
         <v>3700</v>
       </c>
       <c r="F152" s="1">
-        <v>6.86</v>
+        <v>6.69</v>
       </c>
       <c r="G152" s="2">
-        <v>1.8541</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>1.8081</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C153">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153">
         <v>3000</v>
       </c>
       <c r="F153" s="1">
-        <v>6.66</v>
+        <v>6.15</v>
       </c>
       <c r="G153" s="2">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>2.05</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C154">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E154">
         <v>2900</v>
       </c>
       <c r="F154" s="1">
-        <v>6.79</v>
+        <v>5.36</v>
       </c>
       <c r="G154" s="2">
-        <v>2.3414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>1.8483</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C155">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>2900</v>
       </c>
       <c r="F155" s="1">
-        <v>6.57</v>
+        <v>6.74</v>
       </c>
       <c r="G155" s="2">
-        <v>2.2655</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>2.3241</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156">
         <v>5200</v>
       </c>
       <c r="F156" s="1">
-        <v>8.19</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G156" s="2">
-        <v>1.575</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>1.5942</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
+        <v>195</v>
+      </c>
+      <c r="B157" t="s">
         <v>194</v>
-      </c>
-      <c r="B157" t="s">
-        <v>193</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157">
         <v>4000</v>
       </c>
       <c r="F157" s="1">
-        <v>8.73</v>
+        <v>7.86</v>
       </c>
       <c r="G157" s="2">
-        <v>2.1825</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>1.965</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -4486,87 +4930,99 @@
         <v>5300</v>
       </c>
       <c r="F158" s="1">
-        <v>8.41</v>
+        <v>7.93</v>
       </c>
       <c r="G158" s="2">
-        <v>1.5868</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>1.4962</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B159" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E159">
         <v>3600</v>
       </c>
       <c r="F159" s="1">
-        <v>7.41</v>
+        <v>7.63</v>
       </c>
       <c r="G159" s="2">
-        <v>2.0583</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>2.1194</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C160">
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E160">
         <v>5200</v>
       </c>
       <c r="F160" s="1">
-        <v>7.17</v>
+        <v>7.78</v>
       </c>
       <c r="G160" s="2">
-        <v>1.3788</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>1.4962</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B161" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C161">
         <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>2800</v>
       </c>
       <c r="F161" s="1">
-        <v>7.44</v>
+        <v>8.81</v>
       </c>
       <c r="G161" s="2">
-        <v>2.6571</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>3.1464</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C162">
         <v>7</v>
@@ -4578,56 +5034,65 @@
         <v>4100</v>
       </c>
       <c r="F162" s="1">
-        <v>6.61</v>
+        <v>6.85</v>
       </c>
       <c r="G162" s="2">
-        <v>1.6122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>1.6707</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C163">
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E163">
         <v>2100</v>
       </c>
       <c r="F163" s="1">
-        <v>5.47</v>
+        <v>6.52</v>
       </c>
       <c r="G163" s="2">
-        <v>2.6048</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>3.1048</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C164">
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164">
         <v>2400</v>
       </c>
       <c r="F164" s="1">
-        <v>1.54</v>
+        <v>2.55</v>
       </c>
       <c r="G164" s="2">
-        <v>0.6417</v>
+        <v>1.0625</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -4667,6 +5132,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H30000">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF2600"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF00F900"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
+++ b/FINAL_HITTER_DKPTS_PREDICTIONS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>Batter</t>
   </si>
@@ -43,214 +43,148 @@
     <t>Opponent</t>
   </si>
   <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>MIN</t>
+    <t>David Fletcher</t>
+  </si>
+  <si>
+    <t>LAA</t>
   </si>
   <si>
     <t>INF/UTIL</t>
   </si>
   <si>
-    <t>Milwaukee Brewers</t>
-  </si>
-  <si>
-    <t>Jorge Polanco</t>
-  </si>
-  <si>
-    <t>Byron Buxton</t>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Mike Trout</t>
   </si>
   <si>
     <t>OF/UTIL</t>
   </si>
   <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>Miguel Sano</t>
-  </si>
-  <si>
-    <t>Jake Cave</t>
-  </si>
-  <si>
-    <t>Mitch Garver</t>
-  </si>
-  <si>
-    <t>Andrelton Simmons</t>
-  </si>
-  <si>
-    <t>Michael Pineda</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Christian Yelich</t>
-  </si>
-  <si>
-    <t>Avisail Garcia</t>
-  </si>
-  <si>
-    <t>Jackie Bradley</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
-    <t>Manny Pina</t>
-  </si>
-  <si>
-    <t>Orlando Arcia</t>
-  </si>
-  <si>
-    <t>Adrian Houser</t>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Jared Walsh</t>
+  </si>
+  <si>
+    <t>OF/INF/UTIL</t>
+  </si>
+  <si>
+    <t>Justin Upton</t>
+  </si>
+  <si>
+    <t>Albert Pujols</t>
+  </si>
+  <si>
+    <t>Jose Iglesias</t>
+  </si>
+  <si>
+    <t>Kurt Suzuki</t>
+  </si>
+  <si>
+    <t>Willie Calhoun</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels</t>
   </si>
   <si>
     <t>Isiah Kiner-Falefa</t>
   </si>
   <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
+    <t>Joey Gallo</t>
+  </si>
+  <si>
+    <t>Nate Lowe</t>
+  </si>
+  <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
+    <t>Nick Solak</t>
   </si>
   <si>
     <t>David Dahl</t>
   </si>
   <si>
-    <t>Joey Gallo</t>
-  </si>
-  <si>
-    <t>Nate Lowe</t>
-  </si>
-  <si>
-    <t>Nick Solak</t>
-  </si>
-  <si>
-    <t>OF/INF/UTIL</t>
-  </si>
-  <si>
-    <t>Ronald Guzman</t>
-  </si>
-  <si>
     <t>Brock Holt</t>
   </si>
   <si>
-    <t>Jonah Heim</t>
-  </si>
-  <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Salvador Perez</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Michael Taylor</t>
-  </si>
-  <si>
-    <t>Kyle Isbel</t>
-  </si>
-  <si>
-    <t>Hanser Alberto</t>
-  </si>
-  <si>
-    <t>Nicky Lopez</t>
-  </si>
-  <si>
-    <t>Adam Frazier</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>Kevin Newman</t>
-  </si>
-  <si>
-    <t>Bryan Reynolds</t>
-  </si>
-  <si>
-    <t>Colin Moran</t>
-  </si>
-  <si>
-    <t>Phillip Evans</t>
-  </si>
-  <si>
-    <t>Gregory Polanco</t>
-  </si>
-  <si>
-    <t>Michael Perez</t>
-  </si>
-  <si>
-    <t>Anthony Alford</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Ian Happ</t>
-  </si>
-  <si>
-    <t>CHC</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Jason Heyward</t>
-  </si>
-  <si>
-    <t>Eric Sogard</t>
-  </si>
-  <si>
-    <t>Zach Davies</t>
+    <t>Jose Trevino</t>
+  </si>
+  <si>
+    <t>Mitch Haniger</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
+    <t>Kyle Seager</t>
+  </si>
+  <si>
+    <t>Kyle Lewis</t>
+  </si>
+  <si>
+    <t>Evan White</t>
+  </si>
+  <si>
+    <t>Taylor Trammell</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
+  </si>
+  <si>
+    <t>Luis Torrens</t>
+  </si>
+  <si>
+    <t>J.P. Crawford</t>
+  </si>
+  <si>
+    <t>Jose Altuve</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Seattle Mariners</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
+  </si>
+  <si>
+    <t>Yulieski Gurriel</t>
+  </si>
+  <si>
+    <t>Carlos Correa</t>
+  </si>
+  <si>
+    <t>Kyle Tucker</t>
+  </si>
+  <si>
+    <t>Myles Straw</t>
+  </si>
+  <si>
+    <t>Martin Maldonado</t>
   </si>
 </sst>
 </file>
@@ -588,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +571,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>7400</v>
+        <v>4400</v>
       </c>
       <c r="F2" s="1">
-        <v>7.01</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>0.9473</v>
+        <v>2.1091</v>
       </c>
       <c r="H2" s="1">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -663,27 +597,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>3700</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.6838</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.42</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -692,19 +617,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>4200</v>
+        <v>9200</v>
       </c>
       <c r="F4" s="1">
-        <v>5.34</v>
+        <v>17.4</v>
       </c>
       <c r="G4" s="2">
-        <v>1.2714</v>
+        <v>1.8913</v>
       </c>
       <c r="H4" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -712,7 +637,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -721,19 +646,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="F5" s="1">
-        <v>6.75</v>
+        <v>3.45</v>
       </c>
       <c r="G5" s="2">
-        <v>1.35</v>
+        <v>0.5227000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -741,7 +666,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -750,19 +675,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>3900</v>
+        <v>6400</v>
       </c>
       <c r="F6" s="1">
-        <v>6.98</v>
+        <v>10.48</v>
       </c>
       <c r="G6" s="2">
-        <v>1.7897</v>
+        <v>1.6375</v>
       </c>
       <c r="H6" s="1">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -770,7 +695,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -779,19 +704,19 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="F7" s="1">
-        <v>6.27</v>
+        <v>4.54</v>
       </c>
       <c r="G7" s="2">
-        <v>1.9594</v>
+        <v>0.8731</v>
       </c>
       <c r="H7" s="1">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -799,7 +724,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -811,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F8" s="1">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="G8" s="2">
-        <v>0.975</v>
+        <v>1.0647</v>
       </c>
       <c r="H8" s="1">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -828,7 +753,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -840,16 +765,16 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>5600</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>3.82</v>
+        <v>4.56</v>
       </c>
       <c r="G9" s="2">
-        <v>0.6821</v>
+        <v>1.0857</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -857,7 +782,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -866,50 +791,59 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.27</v>
+      </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>4000</v>
       </c>
       <c r="F11" s="1">
-        <v>5.99</v>
+        <v>13.57</v>
       </c>
       <c r="G11" s="2">
-        <v>1.4975</v>
+        <v>3.3925</v>
       </c>
       <c r="H11" s="1">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -918,114 +852,114 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="F12" s="1">
-        <v>7.17</v>
+        <v>7.89</v>
       </c>
       <c r="G12" s="2">
-        <v>1.1565</v>
+        <v>1.1603</v>
       </c>
       <c r="H12" s="1">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>8900</v>
+        <v>5500</v>
       </c>
       <c r="F13" s="1">
-        <v>7.48</v>
+        <v>15.49</v>
       </c>
       <c r="G13" s="2">
-        <v>0.8404</v>
+        <v>2.8164</v>
       </c>
       <c r="H13" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="1">
-        <v>6.41</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2">
-        <v>1.8314</v>
+        <v>1.746</v>
       </c>
       <c r="H14" s="1">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>4800</v>
+        <v>6100</v>
       </c>
       <c r="F15" s="1">
-        <v>5.65</v>
+        <v>6.57</v>
       </c>
       <c r="G15" s="2">
-        <v>1.1771</v>
+        <v>1.077</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1034,56 +968,56 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="F16" s="1">
-        <v>4.09</v>
+        <v>6.85</v>
       </c>
       <c r="G16" s="2">
-        <v>1.2029</v>
+        <v>0.9786</v>
       </c>
       <c r="H16" s="1">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="F17" s="1">
-        <v>4.31</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>0.7981</v>
+        <v>2.0289</v>
       </c>
       <c r="H17" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1092,184 +1026,193 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="F18" s="1">
-        <v>4.05</v>
+        <v>10.85</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0658</v>
+        <v>2.3587</v>
       </c>
       <c r="H18" s="1">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>4700</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.866</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.12</v>
+      </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>4100</v>
+        <v>5800</v>
       </c>
       <c r="F20" s="1">
-        <v>11.31</v>
+        <v>7.71</v>
       </c>
       <c r="G20" s="2">
-        <v>2.7585</v>
+        <v>1.3293</v>
       </c>
       <c r="H20" s="1">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>3600</v>
+        <v>5700</v>
       </c>
       <c r="F21" s="1">
-        <v>8.65</v>
+        <v>10.63</v>
       </c>
       <c r="G21" s="2">
-        <v>2.4028</v>
+        <v>1.8649</v>
       </c>
       <c r="H21" s="1">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>4200</v>
+        <v>6500</v>
       </c>
       <c r="F22" s="1">
-        <v>8.17</v>
+        <v>7.76</v>
       </c>
       <c r="G22" s="2">
-        <v>1.9452</v>
+        <v>1.1938</v>
       </c>
       <c r="H22" s="1">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="F23" s="1">
-        <v>8.84</v>
+        <v>10.46</v>
       </c>
       <c r="G23" s="2">
-        <v>2.1048</v>
+        <v>2.2255</v>
       </c>
       <c r="H23" s="1">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="F24" s="1">
-        <v>7.86</v>
+        <v>8.69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.1833</v>
+        <v>2.069</v>
       </c>
       <c r="H24" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1277,28 +1220,28 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="F25" s="1">
-        <v>6.67</v>
+        <v>7.61</v>
       </c>
       <c r="G25" s="2">
-        <v>1.8528</v>
+        <v>1.5854</v>
       </c>
       <c r="H25" s="1">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1306,28 +1249,28 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>3100</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="1">
-        <v>5.36</v>
+        <v>6.83</v>
       </c>
       <c r="G26" s="2">
-        <v>1.729</v>
+        <v>1.3939</v>
       </c>
       <c r="H26" s="1">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1335,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -1344,19 +1287,19 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="F27" s="1">
-        <v>5.27</v>
+        <v>6.72</v>
       </c>
       <c r="G27" s="2">
-        <v>1.1977</v>
+        <v>1.639</v>
       </c>
       <c r="H27" s="1">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1364,28 +1307,28 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="F28" s="1">
-        <v>5.41</v>
+        <v>5.67</v>
       </c>
       <c r="G28" s="2">
-        <v>1.5912</v>
+        <v>1.4175</v>
       </c>
       <c r="H28" s="1">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1399,19 +1342,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="F29" s="1">
-        <v>7.81</v>
+        <v>8.16</v>
       </c>
       <c r="G29" s="2">
-        <v>0.9188</v>
+        <v>1.0597</v>
       </c>
       <c r="H29" s="1">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -1428,16 +1371,16 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>4500</v>
+        <v>8600</v>
       </c>
       <c r="F30" s="1">
-        <v>6.62</v>
+        <v>11.51</v>
       </c>
       <c r="G30" s="2">
-        <v>1.4711</v>
+        <v>1.3384</v>
       </c>
       <c r="H30" s="1">
         <v>0.34</v>
@@ -1460,16 +1403,16 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>4000</v>
+        <v>7300</v>
       </c>
       <c r="F31" s="1">
-        <v>6.83</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>1.7075</v>
+        <v>1.3315</v>
       </c>
       <c r="H31" s="1">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I31" t="s">
         <v>48</v>
@@ -1486,19 +1429,19 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="1">
-        <v>6.68</v>
+        <v>10.34</v>
       </c>
       <c r="G32" s="2">
-        <v>0.9543</v>
+        <v>1.2925</v>
       </c>
       <c r="H32" s="1">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -1515,19 +1458,19 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="F33" s="1">
-        <v>6.9</v>
+        <v>9.35</v>
       </c>
       <c r="G33" s="2">
-        <v>1.9167</v>
+        <v>1.3955</v>
       </c>
       <c r="H33" s="1">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
@@ -1544,19 +1487,19 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>3300</v>
+        <v>8300</v>
       </c>
       <c r="F34" s="1">
-        <v>4.15</v>
+        <v>6.52</v>
       </c>
       <c r="G34" s="2">
-        <v>1.2576</v>
+        <v>0.7855</v>
       </c>
       <c r="H34" s="1">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -1573,19 +1516,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F35" s="1">
-        <v>4.85</v>
+        <v>7.2</v>
       </c>
       <c r="G35" s="2">
-        <v>1.6167</v>
+        <v>1.2</v>
       </c>
       <c r="H35" s="1">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
@@ -1602,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="F36" s="1">
-        <v>3.79</v>
+        <v>2.54</v>
       </c>
       <c r="G36" s="2">
-        <v>0.7431</v>
+        <v>0.6513</v>
       </c>
       <c r="H36" s="1">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -1634,523 +1577,19 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="F37" s="1">
-        <v>2.76</v>
+        <v>4.65</v>
       </c>
       <c r="G37" s="2">
-        <v>0.92</v>
+        <v>1.0814</v>
       </c>
       <c r="H37" s="1">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>4100</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4.46</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1.0878</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>3800</v>
-      </c>
-      <c r="F39" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1.3868</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>3700</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3.96</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1.0703</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>3800</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4.09</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1.0763</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>4700</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.8447</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>3600</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.8306</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44">
-        <v>4100</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.5171</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>3600</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3.14</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.8722</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>6500</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6.43</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.9892</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>8100</v>
-      </c>
-      <c r="F48" s="1">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1.0235</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>7200</v>
-      </c>
-      <c r="F49" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0.8542</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50">
-        <v>7700</v>
-      </c>
-      <c r="F50" s="1">
-        <v>7.61</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0.9883</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>3900</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5.02</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1.2872</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="I51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52">
-        <v>7800</v>
-      </c>
-      <c r="F52" s="1">
-        <v>7.01</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0.8987000000000001</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>4300</v>
-      </c>
-      <c r="F53" s="1">
-        <v>4.71</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1.0953</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="I53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54">
-        <v>3000</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3.88</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1.2933</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
